--- a/Data Net 1 1st Pair.xlsx
+++ b/Data Net 1 1st Pair.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4366,16 +4365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>115358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>429683</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4399,14 +4398,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:colOff>651933</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4430,15 +4429,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:colOff>429683</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -48755,8 +48754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
